--- a/pathfindR/All_stages_Pathway_overlap_KEGG.xlsx
+++ b/pathfindR/All_stages_Pathway_overlap_KEGG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s2071467\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s2071467\Desktop\iGEM_series\pathfindR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="73">
   <si>
     <t>Term_Description</t>
   </si>
@@ -228,13 +228,28 @@
   </si>
   <si>
     <t>Viral carcinogenesis</t>
+  </si>
+  <si>
+    <t>Stage 1</t>
+  </si>
+  <si>
+    <t>Stage 2</t>
+  </si>
+  <si>
+    <t>Stage 3</t>
+  </si>
+  <si>
+    <t>Stage 4</t>
+  </si>
+  <si>
+    <t>Blood</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +261,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -271,12 +294,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -559,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,517 +600,535 @@
     <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>